--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>47.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.51</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.69</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165523</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚中证信息安全指数（LOF）</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>165523</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>信诚中证信息安全指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.97</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.22</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.22</v>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2964,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="5">
@@ -2847,14 +2980,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
@@ -2863,14 +2996,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.22</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -2879,13 +3012,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
+++ b/数据整理/stocks/A股/上证主板/601360-三六零.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.32</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.22</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.08</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.33</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+          <t>招商中证全指软件ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2323,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2759,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
